--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9786.564313389439</v>
+        <v>10334.51752304612</v>
       </c>
       <c r="AB2" t="n">
-        <v>13390.40904632613</v>
+        <v>14140.14280176793</v>
       </c>
       <c r="AC2" t="n">
-        <v>12112.44720050139</v>
+        <v>12790.62741858173</v>
       </c>
       <c r="AD2" t="n">
-        <v>9786564.313389439</v>
+        <v>10334517.52304612</v>
       </c>
       <c r="AE2" t="n">
-        <v>13390409.04632613</v>
+        <v>14140142.80176793</v>
       </c>
       <c r="AF2" t="n">
         <v>1.448352086790427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>108.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>12112447.20050139</v>
+        <v>12790627.41858174</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3382.048852223301</v>
+        <v>3675.534674269705</v>
       </c>
       <c r="AB3" t="n">
-        <v>4627.468445077151</v>
+        <v>5029.028694481732</v>
       </c>
       <c r="AC3" t="n">
-        <v>4185.829351371567</v>
+        <v>4549.065254166308</v>
       </c>
       <c r="AD3" t="n">
-        <v>3382048.852223301</v>
+        <v>3675534.674269705</v>
       </c>
       <c r="AE3" t="n">
-        <v>4627468.445077151</v>
+        <v>5029028.694481731</v>
       </c>
       <c r="AF3" t="n">
         <v>2.729456234299983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>4185829.351371567</v>
+        <v>4549065.254166308</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2610.92022370413</v>
+        <v>2855.531770236353</v>
       </c>
       <c r="AB4" t="n">
-        <v>3572.376235743068</v>
+        <v>3907.064545208283</v>
       </c>
       <c r="AC4" t="n">
-        <v>3231.433661665151</v>
+        <v>3534.179788612986</v>
       </c>
       <c r="AD4" t="n">
-        <v>2610920.223704129</v>
+        <v>2855531.770236353</v>
       </c>
       <c r="AE4" t="n">
-        <v>3572376.235743068</v>
+        <v>3907064.545208283</v>
       </c>
       <c r="AF4" t="n">
         <v>3.202948711047854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.00416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3231433.661665151</v>
+        <v>3534179.788612986</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2289.11246502409</v>
+        <v>2514.146969015617</v>
       </c>
       <c r="AB5" t="n">
-        <v>3132.064663160685</v>
+        <v>3439.966799343555</v>
       </c>
       <c r="AC5" t="n">
-        <v>2833.144807588874</v>
+        <v>3111.661196037801</v>
       </c>
       <c r="AD5" t="n">
-        <v>2289112.46502409</v>
+        <v>2514146.969015617</v>
       </c>
       <c r="AE5" t="n">
-        <v>3132064.663160685</v>
+        <v>3439966.799343555</v>
       </c>
       <c r="AF5" t="n">
         <v>3.45721078090053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>2833144.807588874</v>
+        <v>3111661.196037801</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2104.184702221601</v>
+        <v>2319.430684942783</v>
       </c>
       <c r="AB6" t="n">
-        <v>2879.038339657038</v>
+        <v>3173.547389198905</v>
       </c>
       <c r="AC6" t="n">
-        <v>2604.266961275858</v>
+        <v>2870.668480475377</v>
       </c>
       <c r="AD6" t="n">
-        <v>2104184.702221601</v>
+        <v>2319430.684942782</v>
       </c>
       <c r="AE6" t="n">
-        <v>2879038.339657038</v>
+        <v>3173547.389198905</v>
       </c>
       <c r="AF6" t="n">
         <v>3.616171660126944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.40416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2604266.961275858</v>
+        <v>2870668.480475377</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1978.342631030695</v>
+        <v>2183.834257900306</v>
       </c>
       <c r="AB7" t="n">
-        <v>2706.855666093283</v>
+        <v>2988.01837562704</v>
       </c>
       <c r="AC7" t="n">
-        <v>2448.517160417127</v>
+        <v>2702.846095567324</v>
       </c>
       <c r="AD7" t="n">
-        <v>1978342.631030695</v>
+        <v>2183834.257900306</v>
       </c>
       <c r="AE7" t="n">
-        <v>2706855.666093283</v>
+        <v>2988018.37562704</v>
       </c>
       <c r="AF7" t="n">
         <v>3.726163548122472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.12083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2448517.160417127</v>
+        <v>2702846.095567324</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1875.861200902264</v>
+        <v>2081.318662353094</v>
       </c>
       <c r="AB8" t="n">
-        <v>2566.636052229953</v>
+        <v>2847.752015130463</v>
       </c>
       <c r="AC8" t="n">
-        <v>2321.67990970145</v>
+        <v>2575.966559651467</v>
       </c>
       <c r="AD8" t="n">
-        <v>1875861.200902264</v>
+        <v>2081318.662353094</v>
       </c>
       <c r="AE8" t="n">
-        <v>2566636.052229953</v>
+        <v>2847752.015130463</v>
       </c>
       <c r="AF8" t="n">
         <v>3.806774041379468e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.22916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2321679.90970145</v>
+        <v>2575966.559651467</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1795.860530796913</v>
+        <v>2001.385312055447</v>
       </c>
       <c r="AB9" t="n">
-        <v>2457.175606011338</v>
+        <v>2738.38367884269</v>
       </c>
       <c r="AC9" t="n">
-        <v>2222.666214841239</v>
+        <v>2477.036183879575</v>
       </c>
       <c r="AD9" t="n">
-        <v>1795860.530796912</v>
+        <v>2001385.312055447</v>
       </c>
       <c r="AE9" t="n">
-        <v>2457175.606011339</v>
+        <v>2738383.67884269</v>
       </c>
       <c r="AF9" t="n">
         <v>3.861393300829302e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.64583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2222666.214841239</v>
+        <v>2477036.183879575</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1774.240198250763</v>
+        <v>1979.663494282812</v>
       </c>
       <c r="AB10" t="n">
-        <v>2427.593713199942</v>
+        <v>2708.662929467204</v>
       </c>
       <c r="AC10" t="n">
-        <v>2195.907576361315</v>
+        <v>2450.151941111152</v>
       </c>
       <c r="AD10" t="n">
-        <v>1774240.198250763</v>
+        <v>1979663.494282812</v>
       </c>
       <c r="AE10" t="n">
-        <v>2427593.713199942</v>
+        <v>2708662.929467204</v>
       </c>
       <c r="AF10" t="n">
         <v>3.879850843677867e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.45416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2195907.576361314</v>
+        <v>2450151.941111152</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1780.286494679526</v>
+        <v>1985.709790711575</v>
       </c>
       <c r="AB11" t="n">
-        <v>2435.866522717548</v>
+        <v>2716.935738984811</v>
       </c>
       <c r="AC11" t="n">
-        <v>2203.390840549522</v>
+        <v>2457.635205299359</v>
       </c>
       <c r="AD11" t="n">
-        <v>1780286.494679526</v>
+        <v>1985709.790711575</v>
       </c>
       <c r="AE11" t="n">
-        <v>2435866.522717549</v>
+        <v>2716935.738984811</v>
       </c>
       <c r="AF11" t="n">
         <v>3.880227528225797e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.45</v>
       </c>
       <c r="AH11" t="n">
-        <v>2203390.840549522</v>
+        <v>2457635.205299359</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6001.076093846531</v>
+        <v>6417.238222074695</v>
       </c>
       <c r="AB2" t="n">
-        <v>8210.93706039352</v>
+        <v>8780.348444012658</v>
       </c>
       <c r="AC2" t="n">
-        <v>7427.296751471795</v>
+        <v>7942.364311812196</v>
       </c>
       <c r="AD2" t="n">
-        <v>6001076.093846531</v>
+        <v>6417238.222074695</v>
       </c>
       <c r="AE2" t="n">
-        <v>8210937.06039352</v>
+        <v>8780348.444012657</v>
       </c>
       <c r="AF2" t="n">
         <v>2.01959498892032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.03333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>7427296.751471795</v>
+        <v>7942364.311812196</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2682.189341988137</v>
+        <v>2943.530003622276</v>
       </c>
       <c r="AB3" t="n">
-        <v>3669.889787550846</v>
+        <v>4027.467610334973</v>
       </c>
       <c r="AC3" t="n">
-        <v>3319.640656949521</v>
+        <v>3643.091754190743</v>
       </c>
       <c r="AD3" t="n">
-        <v>2682189.341988137</v>
+        <v>2943530.003622276</v>
       </c>
       <c r="AE3" t="n">
-        <v>3669889.787550846</v>
+        <v>4027467.610334972</v>
       </c>
       <c r="AF3" t="n">
         <v>3.26762225962455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.55833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3319640.656949521</v>
+        <v>3643091.754190743</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2149.263056837474</v>
+        <v>2371.848367482259</v>
       </c>
       <c r="AB4" t="n">
-        <v>2940.716533159125</v>
+        <v>3245.267574954366</v>
       </c>
       <c r="AC4" t="n">
-        <v>2660.058674555994</v>
+        <v>2935.543792362248</v>
       </c>
       <c r="AD4" t="n">
-        <v>2149263.056837474</v>
+        <v>2371848.367482259</v>
       </c>
       <c r="AE4" t="n">
-        <v>2940716.533159125</v>
+        <v>3245267.574954366</v>
       </c>
       <c r="AF4" t="n">
         <v>3.724710186708762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2660058.674555994</v>
+        <v>2935543.792362248</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1906.122255024045</v>
+        <v>2118.992851099938</v>
       </c>
       <c r="AB5" t="n">
-        <v>2608.040561502862</v>
+        <v>2899.299502241801</v>
       </c>
       <c r="AC5" t="n">
-        <v>2359.132830720946</v>
+        <v>2622.594426940252</v>
       </c>
       <c r="AD5" t="n">
-        <v>1906122.255024045</v>
+        <v>2118992.851099939</v>
       </c>
       <c r="AE5" t="n">
-        <v>2608040.561502862</v>
+        <v>2899299.502241801</v>
       </c>
       <c r="AF5" t="n">
         <v>3.966237260893927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>2359132.830720946</v>
+        <v>2622594.426940252</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1749.218278842274</v>
+        <v>1962.122029307091</v>
       </c>
       <c r="AB6" t="n">
-        <v>2393.357619176072</v>
+        <v>2684.661923212604</v>
       </c>
       <c r="AC6" t="n">
-        <v>2164.938927100422</v>
+        <v>2428.441557207866</v>
       </c>
       <c r="AD6" t="n">
-        <v>1749218.278842274</v>
+        <v>1962122.02930709</v>
       </c>
       <c r="AE6" t="n">
-        <v>2393357.619176072</v>
+        <v>2684661.923212604</v>
       </c>
       <c r="AF6" t="n">
         <v>4.115027830485811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.73333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2164938.927100422</v>
+        <v>2428441.557207867</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1656.765363483616</v>
+        <v>1860.022730217106</v>
       </c>
       <c r="AB7" t="n">
-        <v>2266.859461647593</v>
+        <v>2544.965157894509</v>
       </c>
       <c r="AC7" t="n">
-        <v>2050.513576185183</v>
+        <v>2302.077255106089</v>
       </c>
       <c r="AD7" t="n">
-        <v>1656765.363483616</v>
+        <v>1860022.730217106</v>
       </c>
       <c r="AE7" t="n">
-        <v>2266859.461647592</v>
+        <v>2544965.157894508</v>
       </c>
       <c r="AF7" t="n">
         <v>4.197048116770534e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.91666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2050513.576185183</v>
+        <v>2302077.255106089</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1650.311619208079</v>
+        <v>1853.568985941569</v>
       </c>
       <c r="AB8" t="n">
-        <v>2258.029164010701</v>
+        <v>2536.134860257617</v>
       </c>
       <c r="AC8" t="n">
-        <v>2042.526029761355</v>
+        <v>2294.089708682261</v>
       </c>
       <c r="AD8" t="n">
-        <v>1650311.619208079</v>
+        <v>1853568.985941569</v>
       </c>
       <c r="AE8" t="n">
-        <v>2258029.164010701</v>
+        <v>2536134.860257617</v>
       </c>
       <c r="AF8" t="n">
         <v>4.207352172836454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.81666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2042526.029761355</v>
+        <v>2294089.708682261</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2054.533393282974</v>
+        <v>2316.418551157758</v>
       </c>
       <c r="AB2" t="n">
-        <v>2811.103228306054</v>
+        <v>3169.426054868271</v>
       </c>
       <c r="AC2" t="n">
-        <v>2542.815481604684</v>
+        <v>2866.940480508929</v>
       </c>
       <c r="AD2" t="n">
-        <v>2054533.393282974</v>
+        <v>2316418.551157758</v>
       </c>
       <c r="AE2" t="n">
-        <v>2811103.228306054</v>
+        <v>3169426.054868271</v>
       </c>
       <c r="AF2" t="n">
         <v>4.467120124954799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.66249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2542815.481604684</v>
+        <v>2866940.480508929</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1393.704372151914</v>
+        <v>1608.812121328063</v>
       </c>
       <c r="AB3" t="n">
-        <v>1906.927807875692</v>
+        <v>2201.247720182629</v>
       </c>
       <c r="AC3" t="n">
-        <v>1724.933294282023</v>
+        <v>1991.163727238978</v>
       </c>
       <c r="AD3" t="n">
-        <v>1393704.372151914</v>
+        <v>1608812.121328063</v>
       </c>
       <c r="AE3" t="n">
-        <v>1906927.807875692</v>
+        <v>2201247.720182629</v>
       </c>
       <c r="AF3" t="n">
         <v>5.492860650749314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.64166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1724933.294282023</v>
+        <v>1991163.727238978</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1397.380161459439</v>
+        <v>1612.487910635588</v>
       </c>
       <c r="AB4" t="n">
-        <v>1911.957184970627</v>
+        <v>2206.277097277564</v>
       </c>
       <c r="AC4" t="n">
-        <v>1729.482674685793</v>
+        <v>1995.713107642747</v>
       </c>
       <c r="AD4" t="n">
-        <v>1397380.161459439</v>
+        <v>1612487.910635588</v>
       </c>
       <c r="AE4" t="n">
-        <v>1911957.184970627</v>
+        <v>2206277.097277564</v>
       </c>
       <c r="AF4" t="n">
         <v>5.500914698624313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.575</v>
       </c>
       <c r="AH4" t="n">
-        <v>1729482.674685793</v>
+        <v>1995713.107642747</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3027.001582442464</v>
+        <v>3330.308175908522</v>
       </c>
       <c r="AB2" t="n">
-        <v>4141.677106982919</v>
+        <v>4556.674569105729</v>
       </c>
       <c r="AC2" t="n">
-        <v>3746.401256772642</v>
+        <v>4121.79194356303</v>
       </c>
       <c r="AD2" t="n">
-        <v>3027001.582442463</v>
+        <v>3330308.175908522</v>
       </c>
       <c r="AE2" t="n">
-        <v>4141677.106982919</v>
+        <v>4556674.569105729</v>
       </c>
       <c r="AF2" t="n">
         <v>3.325982836369635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3746401.256772642</v>
+        <v>4121791.943563031</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1787.04313367279</v>
+        <v>2005.0749268201</v>
       </c>
       <c r="AB3" t="n">
-        <v>2445.111254270007</v>
+        <v>2743.431972538003</v>
       </c>
       <c r="AC3" t="n">
-        <v>2211.753267897675</v>
+        <v>2481.602675509931</v>
       </c>
       <c r="AD3" t="n">
-        <v>1787043.13367279</v>
+        <v>2005074.9268201</v>
       </c>
       <c r="AE3" t="n">
-        <v>2445111.254270007</v>
+        <v>2743431.972538003</v>
       </c>
       <c r="AF3" t="n">
         <v>4.510204106898488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>2211753.267897675</v>
+        <v>2481602.675509932</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1493.785811676922</v>
+        <v>1702.266703858192</v>
       </c>
       <c r="AB4" t="n">
-        <v>2043.863648715304</v>
+        <v>2329.116402925551</v>
       </c>
       <c r="AC4" t="n">
-        <v>1848.800170662563</v>
+        <v>2106.828802365738</v>
       </c>
       <c r="AD4" t="n">
-        <v>1493785.811676922</v>
+        <v>1702266.703858192</v>
       </c>
       <c r="AE4" t="n">
-        <v>2043863.648715304</v>
+        <v>2329116.402925551</v>
       </c>
       <c r="AF4" t="n">
         <v>4.909760463214913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.27916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1848800.170662563</v>
+        <v>2106828.802365738</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1483.011209485101</v>
+        <v>1682.077862375453</v>
       </c>
       <c r="AB5" t="n">
-        <v>2029.121362654553</v>
+        <v>2301.493139340042</v>
       </c>
       <c r="AC5" t="n">
-        <v>1835.464867692521</v>
+        <v>2081.841864287336</v>
       </c>
       <c r="AD5" t="n">
-        <v>1483011.209485101</v>
+        <v>1682077.862375453</v>
       </c>
       <c r="AE5" t="n">
-        <v>2029121.362654553</v>
+        <v>2301493.139340042</v>
       </c>
       <c r="AF5" t="n">
         <v>4.93516866043703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.05833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1835464.867692521</v>
+        <v>2081841.864287336</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1494.042093682173</v>
+        <v>1716.004610462721</v>
       </c>
       <c r="AB2" t="n">
-        <v>2044.214305061253</v>
+        <v>2347.913212815533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1849.117360859003</v>
+        <v>2123.831671101309</v>
       </c>
       <c r="AD2" t="n">
-        <v>1494042.093682173</v>
+        <v>1716004.610462721</v>
       </c>
       <c r="AE2" t="n">
-        <v>2044214.305061253</v>
+        <v>2347913.212815533</v>
       </c>
       <c r="AF2" t="n">
         <v>5.702911320041329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1849117.360859003</v>
+        <v>2123831.671101308</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1350.940791851088</v>
+        <v>1572.902297601778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1848.416790712088</v>
+        <v>2152.114315130713</v>
       </c>
       <c r="AC3" t="n">
-        <v>1672.006486475784</v>
+        <v>1946.719545406049</v>
       </c>
       <c r="AD3" t="n">
-        <v>1350940.791851088</v>
+        <v>1572902.297601778</v>
       </c>
       <c r="AE3" t="n">
-        <v>1848416.790712087</v>
+        <v>2152114.315130713</v>
       </c>
       <c r="AF3" t="n">
         <v>6.013260393610302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1672006.486475784</v>
+        <v>1946719.545406049</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6751.656797638479</v>
+        <v>7198.131867139246</v>
       </c>
       <c r="AB2" t="n">
-        <v>9237.914692605356</v>
+        <v>9848.801579786254</v>
       </c>
       <c r="AC2" t="n">
-        <v>8356.261079837455</v>
+        <v>8908.845779890915</v>
       </c>
       <c r="AD2" t="n">
-        <v>6751656.79763848</v>
+        <v>7198131.867139245</v>
       </c>
       <c r="AE2" t="n">
-        <v>9237914.692605356</v>
+        <v>9848801.579786254</v>
       </c>
       <c r="AF2" t="n">
         <v>1.861004624282669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>8356261.079837454</v>
+        <v>8908845.779890915</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2845.369667722287</v>
+        <v>3117.151340451876</v>
       </c>
       <c r="AB3" t="n">
-        <v>3893.160308228214</v>
+        <v>4265.023983018036</v>
       </c>
       <c r="AC3" t="n">
-        <v>3521.602552495576</v>
+        <v>3857.976080077389</v>
       </c>
       <c r="AD3" t="n">
-        <v>2845369.667722288</v>
+        <v>3117151.340451876</v>
       </c>
       <c r="AE3" t="n">
-        <v>3893160.308228214</v>
+        <v>4265023.983018036</v>
       </c>
       <c r="AF3" t="n">
         <v>3.118701071253041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.7375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3521602.552495576</v>
+        <v>3857976.080077389</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2255.43410642048</v>
+        <v>2488.414229773543</v>
       </c>
       <c r="AB4" t="n">
-        <v>3085.984447134903</v>
+        <v>3404.758130264213</v>
       </c>
       <c r="AC4" t="n">
-        <v>2791.462422706605</v>
+        <v>3079.812792919717</v>
       </c>
       <c r="AD4" t="n">
-        <v>2255434.106420481</v>
+        <v>2488414.229773543</v>
       </c>
       <c r="AE4" t="n">
-        <v>3085984.447134903</v>
+        <v>3404758.130264213</v>
       </c>
       <c r="AF4" t="n">
         <v>3.578824107816554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>2791462.422706605</v>
+        <v>3079812.792919717</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000.74506097126</v>
+        <v>2223.982090206717</v>
       </c>
       <c r="AB5" t="n">
-        <v>2737.507659063421</v>
+        <v>3042.950410986203</v>
       </c>
       <c r="AC5" t="n">
-        <v>2476.243770198538</v>
+        <v>2752.53549456929</v>
       </c>
       <c r="AD5" t="n">
-        <v>2000745.06097126</v>
+        <v>2223982.090206717</v>
       </c>
       <c r="AE5" t="n">
-        <v>2737507.659063421</v>
+        <v>3042950.410986203</v>
       </c>
       <c r="AF5" t="n">
         <v>3.820549584193014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2476243.770198538</v>
+        <v>2752535.49456929</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1846.291224906807</v>
+        <v>2050.111407774464</v>
       </c>
       <c r="AB6" t="n">
-        <v>2526.177106537698</v>
+        <v>2805.052872649078</v>
       </c>
       <c r="AC6" t="n">
-        <v>2285.082309001577</v>
+        <v>2537.342563399882</v>
       </c>
       <c r="AD6" t="n">
-        <v>1846291.224906807</v>
+        <v>2050111.407774464</v>
       </c>
       <c r="AE6" t="n">
-        <v>2526177.106537698</v>
+        <v>2805052.872649078</v>
       </c>
       <c r="AF6" t="n">
         <v>3.974594272133421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2285082.309001577</v>
+        <v>2537342.563399882</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1729.185099748251</v>
+        <v>1932.971117197127</v>
       </c>
       <c r="AB7" t="n">
-        <v>2365.947339738143</v>
+        <v>2644.776359216275</v>
       </c>
       <c r="AC7" t="n">
-        <v>2140.144646261481</v>
+        <v>2392.362615459607</v>
       </c>
       <c r="AD7" t="n">
-        <v>1729185.099748251</v>
+        <v>1932971.117197127</v>
       </c>
       <c r="AE7" t="n">
-        <v>2365947.339738144</v>
+        <v>2644776.359216275</v>
       </c>
       <c r="AF7" t="n">
         <v>4.080776511340385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.06666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2140144.646261481</v>
+        <v>2392362.615459607</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1678.368938040078</v>
+        <v>1882.222275296659</v>
       </c>
       <c r="AB8" t="n">
-        <v>2296.418425438188</v>
+        <v>2575.339554847162</v>
       </c>
       <c r="AC8" t="n">
-        <v>2077.25147395787</v>
+        <v>2329.552762244315</v>
       </c>
       <c r="AD8" t="n">
-        <v>1678368.938040078</v>
+        <v>1882222.275296659</v>
       </c>
       <c r="AE8" t="n">
-        <v>2296418.425438188</v>
+        <v>2575339.554847162</v>
       </c>
       <c r="AF8" t="n">
         <v>4.117779412882207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.69583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2077251.473957869</v>
+        <v>2329552.762244314</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1683.896652555865</v>
+        <v>1887.749989812447</v>
       </c>
       <c r="AB9" t="n">
-        <v>2303.981688304242</v>
+        <v>2582.902817713215</v>
       </c>
       <c r="AC9" t="n">
-        <v>2084.092909631093</v>
+        <v>2336.394197917538</v>
       </c>
       <c r="AD9" t="n">
-        <v>1683896.652555865</v>
+        <v>1887749.989812447</v>
       </c>
       <c r="AE9" t="n">
-        <v>2303981.688304242</v>
+        <v>2582902.817713215</v>
       </c>
       <c r="AF9" t="n">
         <v>4.116975001979123e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.70416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2084092.909631093</v>
+        <v>2336394.197917538</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1334.698186982953</v>
+        <v>1564.367815223603</v>
       </c>
       <c r="AB2" t="n">
-        <v>1826.192942158351</v>
+        <v>2140.437059826105</v>
       </c>
       <c r="AC2" t="n">
-        <v>1651.903650836649</v>
+        <v>1936.156750958582</v>
       </c>
       <c r="AD2" t="n">
-        <v>1334698.186982953</v>
+        <v>1564367.815223604</v>
       </c>
       <c r="AE2" t="n">
-        <v>1826192.942158351</v>
+        <v>2140437.059826105</v>
       </c>
       <c r="AF2" t="n">
         <v>6.32078403526891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.525</v>
       </c>
       <c r="AH2" t="n">
-        <v>1651903.650836649</v>
+        <v>1936156.750958582</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1341.669285060458</v>
+        <v>1562.116240549057</v>
       </c>
       <c r="AB3" t="n">
-        <v>1835.731106091136</v>
+        <v>2137.356356023926</v>
       </c>
       <c r="AC3" t="n">
-        <v>1660.531505790586</v>
+        <v>1933.370065203488</v>
       </c>
       <c r="AD3" t="n">
-        <v>1341669.285060458</v>
+        <v>1562116.240549057</v>
       </c>
       <c r="AE3" t="n">
-        <v>1835731.106091136</v>
+        <v>2137356.356023926</v>
       </c>
       <c r="AF3" t="n">
         <v>6.329435730081643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.45833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1660531.505790586</v>
+        <v>1933370.065203488</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4273.310824797861</v>
+        <v>4628.049079372022</v>
       </c>
       <c r="AB2" t="n">
-        <v>5846.932395656918</v>
+        <v>6332.300925512588</v>
       </c>
       <c r="AC2" t="n">
-        <v>5288.909374036358</v>
+        <v>5727.955012621595</v>
       </c>
       <c r="AD2" t="n">
-        <v>4273310.82479786</v>
+        <v>4628049.079372022</v>
       </c>
       <c r="AE2" t="n">
-        <v>5846932.395656918</v>
+        <v>6332300.925512588</v>
       </c>
       <c r="AF2" t="n">
         <v>2.573839067841812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.55416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5288909.374036358</v>
+        <v>5727955.012621596</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.150255930181</v>
+        <v>2462.759865293522</v>
       </c>
       <c r="AB3" t="n">
-        <v>3041.812258631108</v>
+        <v>3369.656696991964</v>
       </c>
       <c r="AC3" t="n">
-        <v>2751.505965877558</v>
+        <v>3048.061391173801</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223150.255930181</v>
+        <v>2462759.865293522</v>
       </c>
       <c r="AE3" t="n">
-        <v>3041812.258631108</v>
+        <v>3369656.696991964</v>
       </c>
       <c r="AF3" t="n">
         <v>3.794205388881904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2751505.965877558</v>
+        <v>3048061.391173801</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1819.889902836271</v>
+        <v>2030.768346267614</v>
       </c>
       <c r="AB4" t="n">
-        <v>2490.053652936665</v>
+        <v>2778.586842539758</v>
       </c>
       <c r="AC4" t="n">
-        <v>2252.406427112641</v>
+        <v>2513.40241405889</v>
       </c>
       <c r="AD4" t="n">
-        <v>1819889.902836271</v>
+        <v>2030768.346267614</v>
       </c>
       <c r="AE4" t="n">
-        <v>2490053.652936665</v>
+        <v>2778586.842539758</v>
       </c>
       <c r="AF4" t="n">
         <v>4.234756286268026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>2252406.427112641</v>
+        <v>2513402.41405889</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1613.181772796969</v>
+        <v>1824.059205198454</v>
       </c>
       <c r="AB5" t="n">
-        <v>2207.226470097804</v>
+        <v>2495.758276365243</v>
       </c>
       <c r="AC5" t="n">
-        <v>1996.571873653476</v>
+        <v>2257.566609287685</v>
       </c>
       <c r="AD5" t="n">
-        <v>1613181.772796969</v>
+        <v>1824059.205198454</v>
       </c>
       <c r="AE5" t="n">
-        <v>2207226.470097804</v>
+        <v>2495758.276365243</v>
       </c>
       <c r="AF5" t="n">
         <v>4.463771045743417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.83333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1996571.873653476</v>
+        <v>2257566.609287685</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1564.538132190439</v>
+        <v>1765.793966419408</v>
       </c>
       <c r="AB6" t="n">
-        <v>2140.670095013983</v>
+        <v>2416.037206186832</v>
       </c>
       <c r="AC6" t="n">
-        <v>1936.367545595197</v>
+        <v>2185.454006157876</v>
       </c>
       <c r="AD6" t="n">
-        <v>1564538.132190439</v>
+        <v>1765793.966419408</v>
       </c>
       <c r="AE6" t="n">
-        <v>2140670.095013984</v>
+        <v>2416037.206186832</v>
       </c>
       <c r="AF6" t="n">
         <v>4.523825796760446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.27916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1936367.545595197</v>
+        <v>2185454.006157876</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1570.678734387758</v>
+        <v>1771.934568616727</v>
       </c>
       <c r="AB7" t="n">
-        <v>2149.071937844606</v>
+        <v>2424.439049017454</v>
       </c>
       <c r="AC7" t="n">
-        <v>1943.967528338124</v>
+        <v>2193.053988900804</v>
       </c>
       <c r="AD7" t="n">
-        <v>1570678.734387758</v>
+        <v>1771934.568616727</v>
       </c>
       <c r="AE7" t="n">
-        <v>2149071.937844606</v>
+        <v>2424439.049017454</v>
       </c>
       <c r="AF7" t="n">
         <v>4.523825796760446e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.27916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1943967.528338124</v>
+        <v>2193053.988900804</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5359.441304290594</v>
+        <v>5764.68460623831</v>
       </c>
       <c r="AB2" t="n">
-        <v>7333.024034393926</v>
+        <v>7887.495798191533</v>
       </c>
       <c r="AC2" t="n">
-        <v>6633.170512514966</v>
+        <v>7134.724269381716</v>
       </c>
       <c r="AD2" t="n">
-        <v>5359441.304290594</v>
+        <v>5764684.60623831</v>
       </c>
       <c r="AE2" t="n">
-        <v>7333024.034393926</v>
+        <v>7887495.798191533</v>
       </c>
       <c r="AF2" t="n">
         <v>2.186656810194869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6633170.512514966</v>
+        <v>7134724.269381716</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2524.230110799332</v>
+        <v>2775.056976842026</v>
       </c>
       <c r="AB3" t="n">
-        <v>3453.762998768855</v>
+        <v>3796.95538258884</v>
       </c>
       <c r="AC3" t="n">
-        <v>3124.140705553038</v>
+        <v>3434.579289934767</v>
       </c>
       <c r="AD3" t="n">
-        <v>2524230.110799332</v>
+        <v>2775056.976842026</v>
       </c>
       <c r="AE3" t="n">
-        <v>3453762.998768855</v>
+        <v>3796955.38258884</v>
       </c>
       <c r="AF3" t="n">
         <v>3.42910429550002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3124140.705553038</v>
+        <v>3434579.289934766</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2039.094338787339</v>
+        <v>2260.967933529745</v>
       </c>
       <c r="AB4" t="n">
-        <v>2789.978832822113</v>
+        <v>3093.556073521021</v>
       </c>
       <c r="AC4" t="n">
-        <v>2523.707168777454</v>
+        <v>2798.311423697276</v>
       </c>
       <c r="AD4" t="n">
-        <v>2039094.338787338</v>
+        <v>2260967.933529745</v>
       </c>
       <c r="AE4" t="n">
-        <v>2789978.832822112</v>
+        <v>3093556.073521021</v>
       </c>
       <c r="AF4" t="n">
         <v>3.876673052548999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.46666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2523707.168777454</v>
+        <v>2798311.423697276</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1806.397952323757</v>
+        <v>2018.687776440435</v>
       </c>
       <c r="AB5" t="n">
-        <v>2471.593371022595</v>
+        <v>2762.057673945086</v>
       </c>
       <c r="AC5" t="n">
-        <v>2235.707968595282</v>
+        <v>2498.450766116059</v>
       </c>
       <c r="AD5" t="n">
-        <v>1806397.952323757</v>
+        <v>2018687.776440435</v>
       </c>
       <c r="AE5" t="n">
-        <v>2471593.371022596</v>
+        <v>2762057.673945086</v>
       </c>
       <c r="AF5" t="n">
         <v>4.117801777991265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.80416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2235707.968595282</v>
+        <v>2498450.766116059</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1664.370159416445</v>
+        <v>1866.941573291989</v>
       </c>
       <c r="AB6" t="n">
-        <v>2277.264678942808</v>
+        <v>2554.431824227378</v>
       </c>
       <c r="AC6" t="n">
-        <v>2059.925734145556</v>
+        <v>2310.640436090699</v>
       </c>
       <c r="AD6" t="n">
-        <v>1664370.159416445</v>
+        <v>1866941.573291989</v>
       </c>
       <c r="AE6" t="n">
-        <v>2277264.678942808</v>
+        <v>2554431.824227378</v>
       </c>
       <c r="AF6" t="n">
         <v>4.264171144663238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2059925.734145556</v>
+        <v>2310640.436090698</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1617.894065616548</v>
+        <v>1830.115558895665</v>
       </c>
       <c r="AB7" t="n">
-        <v>2213.67403702524</v>
+        <v>2504.044846681234</v>
       </c>
       <c r="AC7" t="n">
-        <v>2002.404093842574</v>
+        <v>2265.062320962992</v>
       </c>
       <c r="AD7" t="n">
-        <v>1617894.065616549</v>
+        <v>1830115.558895665</v>
       </c>
       <c r="AE7" t="n">
-        <v>2213674.03702524</v>
+        <v>2504044.846681234</v>
       </c>
       <c r="AF7" t="n">
         <v>4.304359265570282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.95</v>
       </c>
       <c r="AH7" t="n">
-        <v>2002404.093842574</v>
+        <v>2265062.320962992</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1624.504276349392</v>
+        <v>1836.725769628508</v>
       </c>
       <c r="AB8" t="n">
-        <v>2222.718418971832</v>
+        <v>2513.089228627827</v>
       </c>
       <c r="AC8" t="n">
-        <v>2010.585292670054</v>
+        <v>2273.243519790471</v>
       </c>
       <c r="AD8" t="n">
-        <v>1624504.276349392</v>
+        <v>1836725.769628508</v>
       </c>
       <c r="AE8" t="n">
-        <v>2222718.418971832</v>
+        <v>2513089.228627827</v>
       </c>
       <c r="AF8" t="n">
         <v>4.305205331273589e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.94166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2010585.292670054</v>
+        <v>2273243.519790471</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8603.79672573391</v>
+        <v>9111.39581368845</v>
       </c>
       <c r="AB2" t="n">
-        <v>11772.09425287245</v>
+        <v>12466.61371870318</v>
       </c>
       <c r="AC2" t="n">
-        <v>10648.58209961591</v>
+        <v>11276.81760239193</v>
       </c>
       <c r="AD2" t="n">
-        <v>8603796.72573391</v>
+        <v>9111395.81368845</v>
       </c>
       <c r="AE2" t="n">
-        <v>11772094.25287245</v>
+        <v>12466613.71870318</v>
       </c>
       <c r="AF2" t="n">
         <v>1.577462509005761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.5708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10648582.09961591</v>
+        <v>11276817.60239193</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3198.348551035969</v>
+        <v>3481.335114717068</v>
       </c>
       <c r="AB3" t="n">
-        <v>4376.121588707313</v>
+        <v>4763.316289621894</v>
       </c>
       <c r="AC3" t="n">
-        <v>3958.470686206147</v>
+        <v>4308.7120682966</v>
       </c>
       <c r="AD3" t="n">
-        <v>3198348.551035969</v>
+        <v>3481335.114717068</v>
       </c>
       <c r="AE3" t="n">
-        <v>4376121.588707313</v>
+        <v>4763316.289621893</v>
       </c>
       <c r="AF3" t="n">
         <v>2.851507680223724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3958470.686206147</v>
+        <v>4308712.0682966</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2489.42107358027</v>
+        <v>2733.356297354284</v>
       </c>
       <c r="AB4" t="n">
-        <v>3406.135738379392</v>
+        <v>3739.89867320957</v>
       </c>
       <c r="AC4" t="n">
-        <v>3081.058924049868</v>
+        <v>3382.967992819062</v>
       </c>
       <c r="AD4" t="n">
-        <v>2489421.07358027</v>
+        <v>2733356.297354284</v>
       </c>
       <c r="AE4" t="n">
-        <v>3406135.738379392</v>
+        <v>3739898.673209569</v>
       </c>
       <c r="AF4" t="n">
         <v>3.321439222399501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.24166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3081058.924049868</v>
+        <v>3382967.992819062</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2186.989703518446</v>
+        <v>2411.500742565405</v>
       </c>
       <c r="AB5" t="n">
-        <v>2992.335795530215</v>
+        <v>3299.521703882456</v>
       </c>
       <c r="AC5" t="n">
-        <v>2706.751466974477</v>
+        <v>2984.619983371586</v>
       </c>
       <c r="AD5" t="n">
-        <v>2186989.703518446</v>
+        <v>2411500.742565405</v>
       </c>
       <c r="AE5" t="n">
-        <v>2992335.795530215</v>
+        <v>3299521.703882456</v>
       </c>
       <c r="AF5" t="n">
         <v>3.57101824929973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.87083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2706751.466974477</v>
+        <v>2984619.983371586</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2011.084551580049</v>
+        <v>2235.527259789446</v>
       </c>
       <c r="AB6" t="n">
-        <v>2751.654606260498</v>
+        <v>3058.74702134623</v>
       </c>
       <c r="AC6" t="n">
-        <v>2489.040552610491</v>
+        <v>2766.824498607237</v>
       </c>
       <c r="AD6" t="n">
-        <v>2011084.551580049</v>
+        <v>2235527.259789446</v>
       </c>
       <c r="AE6" t="n">
-        <v>2751654.606260498</v>
+        <v>3058747.02134623</v>
       </c>
       <c r="AF6" t="n">
         <v>3.728303028964127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.975</v>
       </c>
       <c r="AH6" t="n">
-        <v>2489040.552610491</v>
+        <v>2766824.498607237</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1888.816522638723</v>
+        <v>2103.530561290128</v>
       </c>
       <c r="AB7" t="n">
-        <v>2584.362094978235</v>
+        <v>2878.143315175936</v>
       </c>
       <c r="AC7" t="n">
-        <v>2337.714203808493</v>
+        <v>2603.457356675057</v>
       </c>
       <c r="AD7" t="n">
-        <v>1888816.522638723</v>
+        <v>2103530.561290128</v>
       </c>
       <c r="AE7" t="n">
-        <v>2584362.094978235</v>
+        <v>2878143.315175936</v>
       </c>
       <c r="AF7" t="n">
         <v>3.836748769466229e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.7625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2337714.203808493</v>
+        <v>2603457.356675057</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1787.075430856441</v>
+        <v>2001.755304089065</v>
       </c>
       <c r="AB8" t="n">
-        <v>2445.15544470153</v>
+        <v>2738.889918265982</v>
       </c>
       <c r="AC8" t="n">
-        <v>2211.793240856436</v>
+        <v>2477.49410852282</v>
       </c>
       <c r="AD8" t="n">
-        <v>1787075.430856441</v>
+        <v>2001755.304089065</v>
       </c>
       <c r="AE8" t="n">
-        <v>2445155.44470153</v>
+        <v>2738889.918265983</v>
       </c>
       <c r="AF8" t="n">
         <v>3.914814320253204e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.92916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2211793.240856436</v>
+        <v>2477494.10852282</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1743.398184463548</v>
+        <v>1948.383553556963</v>
       </c>
       <c r="AB9" t="n">
-        <v>2385.394309282657</v>
+        <v>2665.864334592505</v>
       </c>
       <c r="AC9" t="n">
-        <v>2157.73562432666</v>
+        <v>2411.437984063089</v>
       </c>
       <c r="AD9" t="n">
-        <v>1743398.184463548</v>
+        <v>1948383.553556963</v>
       </c>
       <c r="AE9" t="n">
-        <v>2385394.309282657</v>
+        <v>2665864.334592505</v>
       </c>
       <c r="AF9" t="n">
         <v>3.953270256601468e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.53333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2157735.62432666</v>
+        <v>2411437.984063089</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1742.994480509081</v>
+        <v>1947.87836437601</v>
       </c>
       <c r="AB10" t="n">
-        <v>2384.841943721994</v>
+        <v>2665.173112467753</v>
       </c>
       <c r="AC10" t="n">
-        <v>2157.235975759857</v>
+        <v>2410.812731207787</v>
       </c>
       <c r="AD10" t="n">
-        <v>1742994.480509081</v>
+        <v>1947878.36437601</v>
       </c>
       <c r="AE10" t="n">
-        <v>2384841.943721994</v>
+        <v>2665173.112467753</v>
       </c>
       <c r="AF10" t="n">
         <v>3.957115850236293e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.49166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2157235.975759856</v>
+        <v>2410812.731207787</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3397.163067564238</v>
+        <v>3720.765964359683</v>
       </c>
       <c r="AB2" t="n">
-        <v>4648.148381298744</v>
+        <v>5090.916141046529</v>
       </c>
       <c r="AC2" t="n">
-        <v>4204.535623504642</v>
+        <v>4605.046249690536</v>
       </c>
       <c r="AD2" t="n">
-        <v>3397163.067564238</v>
+        <v>3720765.964359683</v>
       </c>
       <c r="AE2" t="n">
-        <v>4648148.381298743</v>
+        <v>5090916.14104653</v>
       </c>
       <c r="AF2" t="n">
         <v>3.048089495384988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.52916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4204535.623504642</v>
+        <v>4605046.249690535</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1928.94060306353</v>
+        <v>2157.31292557799</v>
       </c>
       <c r="AB3" t="n">
-        <v>2639.261631964953</v>
+        <v>2951.730718705044</v>
       </c>
       <c r="AC3" t="n">
-        <v>2387.374206037183</v>
+        <v>2670.021681691916</v>
       </c>
       <c r="AD3" t="n">
-        <v>1928940.60306353</v>
+        <v>2157312.92557799</v>
       </c>
       <c r="AE3" t="n">
-        <v>2639261.631964953</v>
+        <v>2951730.718705044</v>
       </c>
       <c r="AF3" t="n">
         <v>4.245655956453201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>2387374.206037183</v>
+        <v>2670021.681691917</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1588.784612550694</v>
+        <v>1798.184770894447</v>
       </c>
       <c r="AB4" t="n">
-        <v>2173.845199122104</v>
+        <v>2460.355733851021</v>
       </c>
       <c r="AC4" t="n">
-        <v>1966.376464328789</v>
+        <v>2225.542835743239</v>
       </c>
       <c r="AD4" t="n">
-        <v>1588784.612550694</v>
+        <v>1798184.770894447</v>
       </c>
       <c r="AE4" t="n">
-        <v>2173845.199122104</v>
+        <v>2460355.733851021</v>
       </c>
       <c r="AF4" t="n">
         <v>4.671372136368562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.75833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1966376.464328789</v>
+        <v>2225542.835743239</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1502.245634014581</v>
+        <v>1711.611626939553</v>
       </c>
       <c r="AB5" t="n">
-        <v>2055.43875085871</v>
+        <v>2341.902538954379</v>
       </c>
       <c r="AC5" t="n">
-        <v>1859.27056130316</v>
+        <v>2118.39464751743</v>
       </c>
       <c r="AD5" t="n">
-        <v>1502245.634014581</v>
+        <v>1711611.626939553</v>
       </c>
       <c r="AE5" t="n">
-        <v>2055438.75085871</v>
+        <v>2341902.53895438</v>
       </c>
       <c r="AF5" t="n">
         <v>4.784512922922645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>1859270.56130316</v>
+        <v>2118394.64751743</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1508.517163097546</v>
+        <v>1717.883156022518</v>
       </c>
       <c r="AB6" t="n">
-        <v>2064.019733630359</v>
+        <v>2350.483521726028</v>
       </c>
       <c r="AC6" t="n">
-        <v>1867.032587122567</v>
+        <v>2126.156673336837</v>
       </c>
       <c r="AD6" t="n">
-        <v>1508517.163097546</v>
+        <v>1717883.156022518</v>
       </c>
       <c r="AE6" t="n">
-        <v>2064019.733630359</v>
+        <v>2350483.521726028</v>
       </c>
       <c r="AF6" t="n">
         <v>4.78355410269761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.75833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1867032.587122567</v>
+        <v>2126156.673336837</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2358.449806874379</v>
+        <v>2630.941223919871</v>
       </c>
       <c r="AB2" t="n">
-        <v>3226.935073227888</v>
+        <v>3599.769851502438</v>
       </c>
       <c r="AC2" t="n">
-        <v>2918.960918870717</v>
+        <v>3256.212869183627</v>
       </c>
       <c r="AD2" t="n">
-        <v>2358449.806874379</v>
+        <v>2630941.223919871</v>
       </c>
       <c r="AE2" t="n">
-        <v>3226935.073227888</v>
+        <v>3599769.851502438</v>
       </c>
       <c r="AF2" t="n">
         <v>4.021368376068078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.47916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2918960.918870717</v>
+        <v>3256212.869183627</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.631087982461</v>
+        <v>1699.784224623776</v>
       </c>
       <c r="AB3" t="n">
-        <v>2029.969507761752</v>
+        <v>2325.71976531777</v>
       </c>
       <c r="AC3" t="n">
-        <v>1836.232067021067</v>
+        <v>2103.756335084033</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483631.087982461</v>
+        <v>1699784.224623777</v>
       </c>
       <c r="AE3" t="n">
-        <v>2029969.507761752</v>
+        <v>2325719.76531777</v>
       </c>
       <c r="AF3" t="n">
         <v>5.174302375713461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="AH3" t="n">
-        <v>1836232.067021067</v>
+        <v>2103756.335084033</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1418.563680236299</v>
+        <v>1634.682651458834</v>
       </c>
       <c r="AB4" t="n">
-        <v>1940.941409912018</v>
+        <v>2236.644920834789</v>
       </c>
       <c r="AC4" t="n">
-        <v>1755.700685878393</v>
+        <v>2023.182668741178</v>
       </c>
       <c r="AD4" t="n">
-        <v>1418563.6802363</v>
+        <v>1634682.651458834</v>
       </c>
       <c r="AE4" t="n">
-        <v>1940941.409912018</v>
+        <v>2236644.920834789</v>
       </c>
       <c r="AF4" t="n">
         <v>5.289868336907229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1755700.685878393</v>
+        <v>2023182.668741178</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1767.28443746268</v>
+        <v>2018.44306148295</v>
       </c>
       <c r="AB2" t="n">
-        <v>2418.076534423179</v>
+        <v>2761.722844144193</v>
       </c>
       <c r="AC2" t="n">
-        <v>2187.298703769561</v>
+        <v>2498.147892001426</v>
       </c>
       <c r="AD2" t="n">
-        <v>1767284.43746268</v>
+        <v>2018443.06148295</v>
       </c>
       <c r="AE2" t="n">
-        <v>2418076.534423179</v>
+        <v>2761722.844144193</v>
       </c>
       <c r="AF2" t="n">
         <v>5.00837405558139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.92916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2187298.703769561</v>
+        <v>2498147.892001426</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1370.469724070736</v>
+        <v>1584.371324031472</v>
       </c>
       <c r="AB3" t="n">
-        <v>1875.137137330693</v>
+        <v>2167.806743069556</v>
       </c>
       <c r="AC3" t="n">
-        <v>1696.176680715353</v>
+        <v>1960.914310046871</v>
       </c>
       <c r="AD3" t="n">
-        <v>1370469.724070736</v>
+        <v>1584371.324031472</v>
       </c>
       <c r="AE3" t="n">
-        <v>1875137.137330693</v>
+        <v>2167806.743069557</v>
       </c>
       <c r="AF3" t="n">
         <v>5.738111480621485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1696176.680715353</v>
+        <v>1960914.310046871</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1335.712119525881</v>
+        <v>1572.738555864014</v>
       </c>
       <c r="AB2" t="n">
-        <v>1827.580249395133</v>
+        <v>2151.890276461328</v>
       </c>
       <c r="AC2" t="n">
-        <v>1653.158555417852</v>
+        <v>1946.51688867283</v>
       </c>
       <c r="AD2" t="n">
-        <v>1335712.119525881</v>
+        <v>1572738.555864014</v>
       </c>
       <c r="AE2" t="n">
-        <v>1827580.249395133</v>
+        <v>2151890.276461328</v>
       </c>
       <c r="AF2" t="n">
         <v>6.663709716599872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.62916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1653158.555417852</v>
+        <v>1946516.88867283</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4781.297208299145</v>
+        <v>5156.35853015035</v>
       </c>
       <c r="AB2" t="n">
-        <v>6541.981776340983</v>
+        <v>7055.157223435556</v>
       </c>
       <c r="AC2" t="n">
-        <v>5917.624217335842</v>
+        <v>6381.822920005953</v>
       </c>
       <c r="AD2" t="n">
-        <v>4781297.208299145</v>
+        <v>5156358.53015035</v>
       </c>
       <c r="AE2" t="n">
-        <v>6541981.776340983</v>
+        <v>7055157.223435557</v>
       </c>
       <c r="AF2" t="n">
         <v>2.372766792243547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5917624.217335843</v>
+        <v>6381822.920005953</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2372.209812598961</v>
+        <v>2622.205476951343</v>
       </c>
       <c r="AB3" t="n">
-        <v>3245.762120108872</v>
+        <v>3587.817217106141</v>
       </c>
       <c r="AC3" t="n">
-        <v>2935.991138821305</v>
+        <v>3245.400977438486</v>
       </c>
       <c r="AD3" t="n">
-        <v>2372209.812598961</v>
+        <v>2622205.476951343</v>
       </c>
       <c r="AE3" t="n">
-        <v>3245762.120108872</v>
+        <v>3587817.217106141</v>
       </c>
       <c r="AF3" t="n">
         <v>3.602864773630303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>2935991.138821305</v>
+        <v>3245400.977438486</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1922.774684218424</v>
+        <v>2144.010528220639</v>
       </c>
       <c r="AB4" t="n">
-        <v>2630.825149779939</v>
+        <v>2933.529791780363</v>
       </c>
       <c r="AC4" t="n">
-        <v>2379.742889871228</v>
+        <v>2653.557825687766</v>
       </c>
       <c r="AD4" t="n">
-        <v>1922774.684218424</v>
+        <v>2144010.528220639</v>
       </c>
       <c r="AE4" t="n">
-        <v>2630825.149779939</v>
+        <v>2933529.791780363</v>
       </c>
       <c r="AF4" t="n">
         <v>4.050014959226337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>2379742.889871228</v>
+        <v>2653557.825687766</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1715.956124458073</v>
+        <v>1927.470048041586</v>
       </c>
       <c r="AB5" t="n">
-        <v>2347.846872124922</v>
+        <v>2637.24955370762</v>
       </c>
       <c r="AC5" t="n">
-        <v>2123.7716618731</v>
+        <v>2385.554157704759</v>
       </c>
       <c r="AD5" t="n">
-        <v>1715956.124458073</v>
+        <v>1927470.048041586</v>
       </c>
       <c r="AE5" t="n">
-        <v>2347846.872124922</v>
+        <v>2637249.55370762</v>
       </c>
       <c r="AF5" t="n">
         <v>4.282289471977585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>2123771.6618731</v>
+        <v>2385554.157704759</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600.134015057436</v>
+        <v>1802.061668867513</v>
       </c>
       <c r="AB6" t="n">
-        <v>2189.37395233213</v>
+        <v>2465.660276694437</v>
       </c>
       <c r="AC6" t="n">
-        <v>1980.423175127192</v>
+        <v>2230.341120462652</v>
       </c>
       <c r="AD6" t="n">
-        <v>1600134.015057436</v>
+        <v>1802061.668867513</v>
       </c>
       <c r="AE6" t="n">
-        <v>2189373.95233213</v>
+        <v>2465660.276694437</v>
       </c>
       <c r="AF6" t="n">
         <v>4.404081351322807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.15416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1980423.175127192</v>
+        <v>2230341.120462652</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1599.39384509664</v>
+        <v>1801.321498906716</v>
       </c>
       <c r="AB7" t="n">
-        <v>2188.361219137774</v>
+        <v>2464.647543500081</v>
       </c>
       <c r="AC7" t="n">
-        <v>1979.507095767525</v>
+        <v>2229.425041102985</v>
       </c>
       <c r="AD7" t="n">
-        <v>1599393.84509664</v>
+        <v>1801321.498906716</v>
       </c>
       <c r="AE7" t="n">
-        <v>2188361.219137774</v>
+        <v>2464647.543500081</v>
       </c>
       <c r="AF7" t="n">
         <v>4.409735974292407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.09583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1979507.095767525</v>
+        <v>2229425.041102985</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7599.973017584023</v>
+        <v>8076.883312375013</v>
       </c>
       <c r="AB2" t="n">
-        <v>10398.61836980521</v>
+        <v>11051.14807493557</v>
       </c>
       <c r="AC2" t="n">
-        <v>9406.188827143153</v>
+        <v>9996.442013047041</v>
       </c>
       <c r="AD2" t="n">
-        <v>7599973.017584023</v>
+        <v>8076883.312375013</v>
       </c>
       <c r="AE2" t="n">
-        <v>10398618.36980521</v>
+        <v>11051148.07493557</v>
       </c>
       <c r="AF2" t="n">
         <v>1.715219301206568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9406188.827143153</v>
+        <v>9996442.013047041</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3010.94414256865</v>
+        <v>3293.195181308145</v>
       </c>
       <c r="AB3" t="n">
-        <v>4119.706609343316</v>
+        <v>4505.894932583724</v>
       </c>
       <c r="AC3" t="n">
-        <v>3726.527592591975</v>
+        <v>4075.858644281021</v>
       </c>
       <c r="AD3" t="n">
-        <v>3010944.14256865</v>
+        <v>3293195.181308146</v>
       </c>
       <c r="AE3" t="n">
-        <v>4119706.609343316</v>
+        <v>4505894.932583724</v>
       </c>
       <c r="AF3" t="n">
         <v>2.981981860278239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3726527.592591975</v>
+        <v>4075858.64428102</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2372.175469077915</v>
+        <v>2615.515358064351</v>
       </c>
       <c r="AB4" t="n">
-        <v>3245.715129788247</v>
+        <v>3578.663501297745</v>
       </c>
       <c r="AC4" t="n">
-        <v>2935.94863319093</v>
+        <v>3237.120879419522</v>
       </c>
       <c r="AD4" t="n">
-        <v>2372175.469077915</v>
+        <v>2615515.358064352</v>
       </c>
       <c r="AE4" t="n">
-        <v>3245715.129788247</v>
+        <v>3578663.501297745</v>
       </c>
       <c r="AF4" t="n">
         <v>3.444981020869746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2935948.63319093</v>
+        <v>3237120.879419522</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2098.921118636716</v>
+        <v>2322.72103022953</v>
       </c>
       <c r="AB5" t="n">
-        <v>2871.836472383278</v>
+        <v>3178.049384780023</v>
       </c>
       <c r="AC5" t="n">
-        <v>2597.752430106822</v>
+        <v>2874.740811916824</v>
       </c>
       <c r="AD5" t="n">
-        <v>2098921.118636716</v>
+        <v>2322721.03022953</v>
       </c>
       <c r="AE5" t="n">
-        <v>2871836.472383278</v>
+        <v>3178049.384780023</v>
       </c>
       <c r="AF5" t="n">
         <v>3.691023019622109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.37083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2597752.430106821</v>
+        <v>2874740.811916823</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1931.567618750237</v>
+        <v>2145.732686776575</v>
       </c>
       <c r="AB6" t="n">
-        <v>2642.856030723258</v>
+        <v>2935.886125092867</v>
       </c>
       <c r="AC6" t="n">
-        <v>2390.625560422765</v>
+        <v>2655.689273856059</v>
       </c>
       <c r="AD6" t="n">
-        <v>1931567.618750237</v>
+        <v>2145732.686776575</v>
       </c>
       <c r="AE6" t="n">
-        <v>2642856.030723258</v>
+        <v>2935886.125092867</v>
       </c>
       <c r="AF6" t="n">
         <v>3.845487085931499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.58333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2390625.560422766</v>
+        <v>2655689.273856059</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1810.815293054112</v>
+        <v>2015.176712479785</v>
       </c>
       <c r="AB7" t="n">
-        <v>2477.637371489185</v>
+        <v>2757.253681336914</v>
       </c>
       <c r="AC7" t="n">
-        <v>2241.175138140148</v>
+        <v>2494.105259819965</v>
       </c>
       <c r="AD7" t="n">
-        <v>1810815.293054112</v>
+        <v>2015176.712479785</v>
       </c>
       <c r="AE7" t="n">
-        <v>2477637.371489185</v>
+        <v>2757253.681336914</v>
       </c>
       <c r="AF7" t="n">
         <v>3.953572628514406e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.42083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2241175.138140148</v>
+        <v>2494105.259819965</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1721.272576547209</v>
+        <v>1925.701315780587</v>
       </c>
       <c r="AB8" t="n">
-        <v>2355.121076418591</v>
+        <v>2634.829496197161</v>
       </c>
       <c r="AC8" t="n">
-        <v>2130.351626318391</v>
+        <v>2383.365067086527</v>
       </c>
       <c r="AD8" t="n">
-        <v>1721272.576547209</v>
+        <v>1925701.315780587</v>
       </c>
       <c r="AE8" t="n">
-        <v>2355121.076418591</v>
+        <v>2634829.496197161</v>
       </c>
       <c r="AF8" t="n">
         <v>4.021568260757472e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.72083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2130351.62631839</v>
+        <v>2383365.067086527</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1711.685767249014</v>
+        <v>1916.114506482392</v>
       </c>
       <c r="AB9" t="n">
-        <v>2342.003980996624</v>
+        <v>2621.712400775194</v>
       </c>
       <c r="AC9" t="n">
-        <v>2118.486408073538</v>
+        <v>2371.499848841674</v>
       </c>
       <c r="AD9" t="n">
-        <v>1711685.767249014</v>
+        <v>1916114.506482392</v>
       </c>
       <c r="AE9" t="n">
-        <v>2342003.980996624</v>
+        <v>2621712.400775194</v>
       </c>
       <c r="AF9" t="n">
         <v>4.034145487530755e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.59583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2118486.408073538</v>
+        <v>2371499.848841674</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1717.851151107788</v>
+        <v>1922.279890341166</v>
       </c>
       <c r="AB10" t="n">
-        <v>2350.439731189737</v>
+        <v>2630.148150968308</v>
       </c>
       <c r="AC10" t="n">
-        <v>2126.11706210787</v>
+        <v>2379.130502876006</v>
       </c>
       <c r="AD10" t="n">
-        <v>1717851.151107788</v>
+        <v>1922279.890341165</v>
       </c>
       <c r="AE10" t="n">
-        <v>2350439.731189738</v>
+        <v>2630148.150968308</v>
       </c>
       <c r="AF10" t="n">
         <v>4.03375244919409e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>2126117.06210787</v>
+        <v>2379130.502876006</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1390.24191040365</v>
+        <v>1652.000836551542</v>
       </c>
       <c r="AB2" t="n">
-        <v>1902.190314958686</v>
+        <v>2260.340425703037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1720.647941039902</v>
+        <v>2044.61670788165</v>
       </c>
       <c r="AD2" t="n">
-        <v>1390241.91040365</v>
+        <v>1652000.836551542</v>
       </c>
       <c r="AE2" t="n">
-        <v>1902190.314958686</v>
+        <v>2260340.425703037</v>
       </c>
       <c r="AF2" t="n">
         <v>6.925671049971369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.37083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1720647.941039902</v>
+        <v>2044616.70788165</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2678.904938546359</v>
+        <v>2962.096689135309</v>
       </c>
       <c r="AB2" t="n">
-        <v>3665.395921864152</v>
+        <v>4052.871368558262</v>
       </c>
       <c r="AC2" t="n">
-        <v>3315.575679496785</v>
+        <v>3666.071013383601</v>
       </c>
       <c r="AD2" t="n">
-        <v>2678904.938546359</v>
+        <v>2962096.689135309</v>
       </c>
       <c r="AE2" t="n">
-        <v>3665395.921864152</v>
+        <v>4052871.368558262</v>
       </c>
       <c r="AF2" t="n">
         <v>3.648682099817055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3315575.679496785</v>
+        <v>3666071.0133836</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1632.181160973493</v>
+        <v>1858.7132533695</v>
       </c>
       <c r="AB3" t="n">
-        <v>2233.222271194774</v>
+        <v>2543.173473901573</v>
       </c>
       <c r="AC3" t="n">
-        <v>2020.086671979088</v>
+        <v>2300.456566918795</v>
       </c>
       <c r="AD3" t="n">
-        <v>1632181.160973493</v>
+        <v>1858713.2533695</v>
       </c>
       <c r="AE3" t="n">
-        <v>2233222.271194774</v>
+        <v>2543173.473901573</v>
       </c>
       <c r="AF3" t="n">
         <v>4.816738614746379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.97083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2020086.671979088</v>
+        <v>2300456.566918795</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1447.658818986678</v>
+        <v>1655.271541272732</v>
       </c>
       <c r="AB4" t="n">
-        <v>1980.750662337218</v>
+        <v>2264.815548195877</v>
       </c>
       <c r="AC4" t="n">
-        <v>1791.710599124767</v>
+        <v>2048.664730964648</v>
       </c>
       <c r="AD4" t="n">
-        <v>1447658.818986678</v>
+        <v>1655271.541272732</v>
       </c>
       <c r="AE4" t="n">
-        <v>1980750.662337217</v>
+        <v>2264815.548195877</v>
       </c>
       <c r="AF4" t="n">
         <v>5.101085260792814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1791710.599124767</v>
+        <v>2048664.730964648</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1454.455231512207</v>
+        <v>1662.067953798261</v>
       </c>
       <c r="AB5" t="n">
-        <v>1990.049813791205</v>
+        <v>2274.114699649864</v>
       </c>
       <c r="AC5" t="n">
-        <v>1800.122252615427</v>
+        <v>2057.076384455308</v>
       </c>
       <c r="AD5" t="n">
-        <v>1454455.231512207</v>
+        <v>1662067.953798261</v>
       </c>
       <c r="AE5" t="n">
-        <v>1990049.813791204</v>
+        <v>2274114.699649864</v>
       </c>
       <c r="AF5" t="n">
         <v>5.101605090127451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.45833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1800122.252615427</v>
+        <v>2057076.384455308</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3811.907097369181</v>
+        <v>4155.782727281238</v>
       </c>
       <c r="AB2" t="n">
-        <v>5215.619460093141</v>
+        <v>5686.12526766094</v>
       </c>
       <c r="AC2" t="n">
-        <v>4717.848058989543</v>
+        <v>5143.449452642102</v>
       </c>
       <c r="AD2" t="n">
-        <v>3811907.097369181</v>
+        <v>4155782.727281238</v>
       </c>
       <c r="AE2" t="n">
-        <v>5215619.460093142</v>
+        <v>5686125.26766094</v>
       </c>
       <c r="AF2" t="n">
         <v>2.796695701905767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4717848.058989543</v>
+        <v>5143449.452642102</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2075.209696787916</v>
+        <v>2304.461127759147</v>
       </c>
       <c r="AB3" t="n">
-        <v>2839.393458935647</v>
+        <v>3153.065380649999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2568.405732328577</v>
+        <v>2852.141246075701</v>
       </c>
       <c r="AD3" t="n">
-        <v>2075209.696787916</v>
+        <v>2304461.127759147</v>
       </c>
       <c r="AE3" t="n">
-        <v>2839393.458935647</v>
+        <v>3153065.38065</v>
       </c>
       <c r="AF3" t="n">
         <v>4.007578845928522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.12083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2568405.732328577</v>
+        <v>2852141.246075701</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1705.405178508173</v>
+        <v>1915.512548162377</v>
       </c>
       <c r="AB4" t="n">
-        <v>2333.410602401385</v>
+        <v>2620.888774845222</v>
       </c>
       <c r="AC4" t="n">
-        <v>2110.713169470546</v>
+        <v>2370.754828614492</v>
       </c>
       <c r="AD4" t="n">
-        <v>1705405.178508173</v>
+        <v>1915512.548162377</v>
       </c>
       <c r="AE4" t="n">
-        <v>2333410.602401386</v>
+        <v>2620888.774845222</v>
       </c>
       <c r="AF4" t="n">
         <v>4.441756364695091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.42083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2110713.169470546</v>
+        <v>2370754.828614492</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1539.402929398268</v>
+        <v>1740.056836329835</v>
       </c>
       <c r="AB5" t="n">
-        <v>2106.27900166685</v>
+        <v>2380.822529356234</v>
       </c>
       <c r="AC5" t="n">
-        <v>1905.258689928911</v>
+        <v>2153.600168659881</v>
       </c>
       <c r="AD5" t="n">
-        <v>1539402.929398268</v>
+        <v>1740056.836329835</v>
       </c>
       <c r="AE5" t="n">
-        <v>2106279.00166685</v>
+        <v>2380822.529356234</v>
       </c>
       <c r="AF5" t="n">
         <v>4.63847858801683e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.57916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1905258.689928911</v>
+        <v>2153600.168659881</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1538.275128147918</v>
+        <v>1738.929035079484</v>
       </c>
       <c r="AB6" t="n">
-        <v>2104.735894241041</v>
+        <v>2379.279421930424</v>
       </c>
       <c r="AC6" t="n">
-        <v>1903.862854510056</v>
+        <v>2152.204333241025</v>
       </c>
       <c r="AD6" t="n">
-        <v>1538275.128147918</v>
+        <v>1738929.035079484</v>
       </c>
       <c r="AE6" t="n">
-        <v>2104735.894241041</v>
+        <v>2379279.421930424</v>
       </c>
       <c r="AF6" t="n">
         <v>4.647273228588861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.50416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1903862.854510056</v>
+        <v>2152204.333241025</v>
       </c>
     </row>
   </sheetData>
